--- a/dat.xlsx
+++ b/dat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10230" yWindow="5340" windowWidth="14010" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13260" yWindow="3615" windowWidth="14010" windowHeight="7875" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,7 @@
     <sheet name="voltages" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="fbsweep" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="finaldata" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -480,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.306,0.0244,0.5920,0.00814,3,1,True,60,100,O,2.5,7,4.5,5,4.03,5</t>
+          <t>1000,13800,208,6,5,YD,300</t>
         </is>
       </c>
     </row>
@@ -503,7 +504,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -550,7 +551,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50+0j,0+0j,0+0j,1,0,0</t>
+          <t>400+3000j,400+3000j,400+3000j,1,0,0</t>
         </is>
       </c>
     </row>
@@ -568,7 +569,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -600,11 +601,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400+0j</t>
+          <t>13800,0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +624,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -662,6 +663,26 @@
       </c>
       <c r="B3" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Upper Limit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lower Limit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +707,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Nodes</t>
+          <t>Node</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -722,6 +743,21 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>Sweep 7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sweep 8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sweep 9</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sweep 10</t>
         </is>
       </c>
     </row>
@@ -731,37 +767,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
     </row>
@@ -771,38 +822,89 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>383.213 ∠ -6.601, 418.827 ∠ -119.552, 388.037 ∠ 122.165</t>
+          <t>206.432 ∠ 40.449, 206.432 ∠ -79.551, 206.432 ∠ 160.449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>377.174 ∠ -6.601, 419.902 ∠ -119.845, 389.424 ∠ 122.453</t>
+          <t>181.49 ∠ 38.059, 181.49 ∠ -81.941, 181.49 ∠ 158.059</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>376.851 ∠ -6.713, 420.221 ∠ -119.843, 389.26 ∠ 122.493</t>
+          <t>179.61 ∠ 39.699, 179.61 ∠ -80.301, 179.61 ∠ 159.699</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>376.742 ∠ -6.713, 420.24 ∠ -119.848, 389.286 ∠ 122.498</t>
+          <t>178.342 ∠ 39.576, 178.342 ∠ -80.424, 178.342 ∠ 159.576</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>376.736 ∠ -6.715, 420.246 ∠ -119.848, 389.283 ∠ 122.499</t>
+          <t>178.227 ∠ 39.673, 178.227 ∠ -80.327, 178.227 ∠ 159.673</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>376.734 ∠ -6.715, 420.246 ∠ -119.848, 389.283 ∠ 122.499</t>
+          <t>178.15 ∠ 39.666, 178.15 ∠ -80.334, 178.15 ∠ 159.666</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>376.734 ∠ -6.715, 420.246 ∠ -119.848, 389.283 ∠ 122.499</t>
-        </is>
+          <t>178.143 ∠ 39.672, 178.143 ∠ -80.328, 178.143 ∠ 159.672</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>178.138 ∠ 39.671, 178.138 ∠ -80.329, 178.138 ∠ 159.671</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>178.138 ∠ 39.672, 178.138 ∠ -80.328, 178.138 ∠ 159.672</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>178.137 ∠ 39.672, 178.137 ∠ -80.328, 178.137 ∠ 159.672</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dat.xlsx
+++ b/dat.xlsx
@@ -696,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,16 +750,6 @@
           <t>Sweep 8</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sweep 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sweep 10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -767,52 +757,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+          <t>13800.0 0.0, 13800.0 -120.0, 13800.0 120.0</t>
         </is>
       </c>
     </row>
@@ -822,52 +802,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206.432 ∠ 40.449, 206.432 ∠ -79.551, 206.432 ∠ 160.449</t>
+          <t>206.432 -49.551, 206.432 -169.551, 206.432 70.449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>181.49 ∠ 38.059, 181.49 ∠ -81.941, 181.49 ∠ 158.059</t>
+          <t>235.154 -53.087, 235.154 -173.087, 235.154 66.913</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>179.61 ∠ 39.699, 179.61 ∠ -80.301, 179.61 ∠ 159.699</t>
+          <t>233.007 -54.231, 233.007 -174.231, 233.007 65.769</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>178.342 ∠ 39.576, 178.342 ∠ -80.424, 178.342 ∠ 159.576</t>
+          <t>233.663 -54.314, 233.663 -174.314, 233.663 65.686</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>178.227 ∠ 39.673, 178.227 ∠ -80.327, 178.227 ∠ 159.673</t>
+          <t>233.618 -54.337, 233.618 -174.337, 233.618 65.663</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>178.15 ∠ 39.666, 178.15 ∠ -80.334, 178.15 ∠ 159.666</t>
+          <t>233.631 -54.339, 233.631 -174.339, 233.631 65.661</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>178.143 ∠ 39.672, 178.143 ∠ -80.328, 178.143 ∠ 159.672</t>
+          <t>233.63 -54.34, 233.63 -174.34, 233.63 65.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>178.138 ∠ 39.671, 178.138 ∠ -80.329, 178.138 ∠ 159.671</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>178.138 ∠ 39.672, 178.138 ∠ -80.328, 178.138 ∠ 159.672</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>178.137 ∠ 39.672, 178.137 ∠ -80.328, 178.137 ∠ 159.672</t>
+          <t>233.631 -54.34, 233.631 -174.34, 233.631 65.66</t>
         </is>
       </c>
     </row>
